--- a/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
+++ b/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
@@ -5,20 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225608\OneDrive - TU Eindhoven\Desktop\Auto-Reff files and documents(MSD 2022)\Registrations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225608\OneDrive - TU Eindhoven\Documents\GitHub\Auto-Referee\Auto-Reff files and documents(MSD 2022)\Registrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C15F9ED-7216-4CFF-9D62-80929B8F6C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC56D38-6D2B-4467-A77B-1822FDD94177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" firstSheet="2" activeTab="3" xr2:uid="{604296D7-6074-4A89-9478-6B056443FE60}"/>
+    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="1" xr2:uid="{604296D7-6074-4A89-9478-6B056443FE60}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder Register" sheetId="9" r:id="rId1"/>
-    <sheet name="Change Register" sheetId="12" r:id="rId2"/>
-    <sheet name="Project Schedule Register" sheetId="15" r:id="rId3"/>
-    <sheet name="Team Register" sheetId="10" r:id="rId4"/>
-    <sheet name="Deliverable Registration" sheetId="11" r:id="rId5"/>
-    <sheet name="Requierment Register" sheetId="14" r:id="rId6"/>
+    <sheet name="Risk Register" sheetId="16" r:id="rId2"/>
+    <sheet name="Change Register" sheetId="12" r:id="rId3"/>
+    <sheet name="Project Schedule Register" sheetId="15" r:id="rId4"/>
+    <sheet name="Team Register" sheetId="10" r:id="rId5"/>
+    <sheet name="Deliverable Registration" sheetId="11" r:id="rId6"/>
+    <sheet name="Requierment Register" sheetId="14" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -41,11 +42,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>Severity</t>
+  </si>
+  <si>
     <t>Initials</t>
   </si>
   <si>
@@ -419,6 +423,90 @@
   </si>
   <si>
     <t>Different dates</t>
+  </si>
+  <si>
+    <t>Risk</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>How</t>
+  </si>
+  <si>
+    <t>Hacking the cameras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Privacy &amp; Security </t>
+  </si>
+  <si>
+    <t>Our cameras are potentially vulnerable to cyberattacks that can execute a variety of harmful actions that can have impact on the judgment of the refree.</t>
+  </si>
+  <si>
+    <t>Hacking the refree system</t>
+  </si>
+  <si>
+    <t>Our refree system is potentially vulnerable to cyberattacks that can execute a variety of harmful actions that can have impact on the judgment of the refree.</t>
+  </si>
+  <si>
+    <t>Data storage privacy</t>
+  </si>
+  <si>
+    <t>There are chances that we lose the stored data and the history of the game.</t>
+  </si>
+  <si>
+    <t>Blocking camera's vision by an obstacle</t>
+  </si>
+  <si>
+    <t>Quality &amp; Reliability</t>
+  </si>
+  <si>
+    <t>If by chance anything blocks the camera's vision, then the refree might miss some imporant details and not being able to make fairfull decision.</t>
+  </si>
+  <si>
+    <t>Fading out the color of the stickers around the football field</t>
+  </si>
+  <si>
+    <t>If the labels in the field faded out, then it might be difficult for autonoum refree to detect the lines and make decision.</t>
+  </si>
+  <si>
+    <t>Camera malfunction</t>
+  </si>
+  <si>
+    <t>Any functional issues in the camera, can cause a delay in the refree's decision.</t>
+  </si>
+  <si>
+    <t>Light condition</t>
+  </si>
+  <si>
+    <t>If the light condition of the field is not desired, then the autonoum refree might have issue for deecting the lines an make a decision.</t>
+  </si>
+  <si>
+    <t>communication problem between autonoum &amp; human refree</t>
+  </si>
+  <si>
+    <t>Technical Performance</t>
+  </si>
+  <si>
+    <t>There will be a delay in refree's decision making, if there are any communication issues between autonoum refree and human refree.</t>
+  </si>
+  <si>
+    <t>Callibration &amp; tuening of image processing tech</t>
+  </si>
+  <si>
+    <t>The accuracy of the current algorithm depends on the method which is used for collibration of the field.</t>
+  </si>
+  <si>
+    <t>Low confidence on object detection ( detecing between ball,team 1 robot, team 2 robot)</t>
+  </si>
+  <si>
+    <t>Since the dataset has been made by us, the detection accuracy may not be accurate.</t>
+  </si>
+  <si>
+    <t>Lower flexibility of code to different robot players</t>
+  </si>
+  <si>
+    <t>If there are any changs in robot's color, our code is not flexible to adjust it in short term.</t>
   </si>
   <si>
     <t>Second version</t>
@@ -610,14 +698,14 @@
     <t>R.B</t>
   </si>
   <si>
-    <t xml:space="preserve"> powerpoint presentation</t>
+    <t>Final powerpoint presentation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,6 +771,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -690,7 +810,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="28">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +880,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDEBF7"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -854,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -947,12 +1079,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -980,9 +1121,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1013,18 +1151,50 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1036,7 +1206,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1046,38 +1216,41 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1532,8 +1705,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF28FFC0-E7E6-491F-A144-863AE9D05E20}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1550,31 +1723,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1582,31 +1755,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1614,29 +1787,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1644,29 +1817,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1674,27 +1847,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1702,27 +1875,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1730,31 +1905,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>200</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="14" t="s">
         <v>38</v>
       </c>
+      <c r="E7" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1766,17 +1941,17 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>28</v>
+        <v>18</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1788,19 +1963,19 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I9" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1819,6 +1994,310 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2F9EA-A916-4F54-8903-77ED19FAD7DF}">
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="69" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="124.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>128</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>129</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="33"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="41">
+        <v>1</v>
+      </c>
+      <c r="B2" s="42" t="s">
+        <v>130</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" s="34">
+        <v>3</v>
+      </c>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="41">
+        <v>2</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="34">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="41">
+        <v>3</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="E4" s="34">
+        <v>3</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="33"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="41">
+        <v>4</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D5" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="37">
+        <v>2</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="41">
+        <v>5</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="33"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="41">
+        <v>6</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D7" s="36" t="s">
+        <v>143</v>
+      </c>
+      <c r="E7" s="34">
+        <v>5</v>
+      </c>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="41">
+        <v>7</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>144</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>138</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="34">
+        <v>3</v>
+      </c>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="33"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="41">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="E9" s="34">
+        <v>4</v>
+      </c>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="33"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="41">
+        <v>9</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="E10" s="34">
+        <v>5</v>
+      </c>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="40">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="34"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="33"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="40">
+        <v>11</v>
+      </c>
+      <c r="B12" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="34">
+        <v>8</v>
+      </c>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="33"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="72"/>
+      <c r="B13" s="72"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="33"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="73"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="33"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="73"/>
+      <c r="B15" s="73"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="33"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="74"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FE032-DA67-4F1B-BA56-64687A930160}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1839,100 +2318,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="17" t="s">
         <v>51</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B2" s="6">
         <v>44973</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>56</v>
+        <v>18</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B3" s="6">
         <v>44988</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>60</v>
+        <v>29</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B4" s="6">
         <v>44994</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>65</v>
+        <v>29</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>66</v>
       </c>
       <c r="H4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1941,7 +2420,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D42A198-B80C-4EAE-9BB0-63CF61EA42FA}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -1960,199 +2439,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="18"/>
-      <c r="B1" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
+      <c r="A1" s="17"/>
+      <c r="B1" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="19">
+      <c r="A2" s="77" t="s">
+        <v>103</v>
+      </c>
+      <c r="B2" s="18">
         <v>1</v>
       </c>
-      <c r="C2" s="19">
+      <c r="C2" s="18">
         <v>2</v>
       </c>
-      <c r="D2" s="19">
+      <c r="D2" s="18">
         <v>3</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>4</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>5</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="19">
         <v>6</v>
       </c>
-      <c r="H2" s="36">
+      <c r="H2" s="47">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="64"/>
-      <c r="B3" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="C3" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="34" t="s">
+      <c r="D3" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="34" t="s">
+      <c r="E3" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="F3" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="G3" s="46" t="s">
         <v>109</v>
       </c>
+      <c r="H3" s="48" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B4" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>111</v>
       </c>
+      <c r="B4" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" s="24"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="28" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="22"/>
+      <c r="A5" s="43" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="64"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="52"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="22"/>
+      <c r="A6" s="44" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="32" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
+      <c r="A7" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="22"/>
+      <c r="A8" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="B9" s="21"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="22"/>
+      <c r="A9" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="22"/>
+      <c r="A10" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="38"/>
+      <c r="A11" s="44" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="49"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="47"/>
+      <c r="A12" s="44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="45"/>
+      <c r="A13" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="B14" s="21"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="54" t="s">
+      <c r="A14" s="43" t="s">
         <v>122</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="66"/>
+      <c r="H14" s="65" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2246,12 +2725,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ADAC88-C9CE-4592-8827-8FB0B382AAE6}">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2273,31 +2752,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2306,28 +2785,28 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2336,28 +2815,28 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2366,28 +2845,28 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2396,28 +2875,28 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2425,7 +2904,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2447,12 +2926,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6CCA2-9CE7-4A51-81F7-0545849D86A4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2462,106 +2941,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B1" s="41" t="s">
-        <v>90</v>
+      <c r="A1" s="53" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="A2" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="50">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="50">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="55" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="51" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="55" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="50">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="50">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="50">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="50">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="B10" s="50">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="B11" s="50">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="55" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="39">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="B12" s="50">
         <v>44970</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="40" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="39">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="39">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="39">
-        <v>44988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="44" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="39">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>172</v>
-      </c>
-      <c r="B10" s="39">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="39">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="39">
-        <v>44970</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="39">
+      <c r="A13" s="55" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="50">
         <v>44995</v>
       </c>
     </row>
@@ -2570,7 +3049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1C62D-D764-4105-92B8-BA09D85BF146}">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -2587,344 +3066,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="59" t="s">
-        <v>144</v>
-      </c>
-      <c r="B1" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="60" t="s">
+      <c r="A1" s="70" t="s">
+        <v>173</v>
+      </c>
+      <c r="B1" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="71" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" s="68" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="15">
+        <v>1</v>
+      </c>
+      <c r="D2" s="68" t="s">
         <v>169</v>
       </c>
-      <c r="D1" s="58" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="68" t="s">
+        <v>160</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="68" t="s">
+        <v>161</v>
+      </c>
+      <c r="C4" s="15">
+        <v>3</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="68" t="s">
+        <v>162</v>
+      </c>
+      <c r="C5" s="15">
+        <v>4</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="68" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="68" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="68" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="57" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="16">
+      <c r="B13" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
+        <v>3</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
+        <v>4</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="15">
+        <v>5</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="70" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="16">
+      <c r="B19" s="33" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="57" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="16">
+      <c r="B20" s="33" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="15">
+        <v>3</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="15">
+        <v>4</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="15">
+        <v>5</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="81">
+        <v>6</v>
+      </c>
+      <c r="B24" s="79" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="81"/>
+      <c r="B25" s="80"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="81"/>
+      <c r="B26" s="80"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="81"/>
+      <c r="B27" s="80"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="81"/>
+      <c r="B28" s="80"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="81"/>
+      <c r="B29" s="80"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="81"/>
+      <c r="B30" s="80"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="81"/>
+      <c r="B31" s="80"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="81"/>
+      <c r="B32" s="80"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="81"/>
+      <c r="B33" s="80"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="81"/>
+      <c r="B34" s="80"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="70" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="15">
+        <v>1</v>
+      </c>
+      <c r="B36" s="68" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="16">
+      <c r="B37" s="68" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="16">
-        <v>3</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5" s="16">
+      <c r="B38" s="33" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="16">
-        <v>4</v>
-      </c>
-      <c r="D5" s="30" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="16">
+      <c r="B39" s="33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="57" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="16">
+      <c r="B40" s="33" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="57" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="16">
+      <c r="B41" s="68" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="57" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="16">
+      <c r="B42" s="33" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="57" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="16">
+      <c r="B43" s="68" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="57" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11" s="16">
+      <c r="B44" s="68" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="16">
-        <v>1</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>2</v>
-      </c>
-      <c r="B14" s="30" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15" s="16">
-        <v>3</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16" s="16">
-        <v>4</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>5</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="59" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>1</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>2</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="16">
-        <v>3</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="16">
-        <v>4</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="16">
-        <v>5</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="67">
-        <v>6</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="67"/>
-      <c r="B25" s="66"/>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="67"/>
-      <c r="B26" s="66"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="67"/>
-      <c r="B27" s="66"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="67"/>
-      <c r="B28" s="66"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="67"/>
-      <c r="B29" s="66"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="67"/>
-      <c r="B30" s="66"/>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="67"/>
-      <c r="B31" s="66"/>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="67"/>
-      <c r="B32" s="66"/>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="67"/>
-      <c r="B33" s="66"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="67"/>
-      <c r="B34" s="66"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="16">
-        <v>1</v>
-      </c>
-      <c r="B36" s="57" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="16">
-        <v>2</v>
-      </c>
-      <c r="B37" s="57" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="16">
-        <v>3</v>
-      </c>
-      <c r="B38" s="30" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="16">
-        <v>4</v>
-      </c>
-      <c r="B39" s="30" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="16">
-        <v>5</v>
-      </c>
-      <c r="B40" s="30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="16">
-        <v>6</v>
-      </c>
-      <c r="B41" s="57" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="16">
-        <v>7</v>
-      </c>
-      <c r="B42" s="30" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="16">
-        <v>8</v>
-      </c>
-      <c r="B43" s="57" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="16">
-        <v>9</v>
-      </c>
-      <c r="B44" s="57" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="16">
-        <v>10</v>
-      </c>
-      <c r="B45" s="57" t="s">
-        <v>168</v>
+      <c r="B45" s="68" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -2946,6 +3425,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007853F880FDE214F97EBD9259D8D9A3D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a146a72e78907ae0b9bbefa29fabe88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1eccce01-e60f-4d14-91b8-d33a907b38d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad7fb27f64a42b5de57b7d481fc88ca" ns2:_="">
     <xsd:import namespace="1eccce01-e60f-4d14-91b8-d33a907b38d2"/>
@@ -3077,12 +3562,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459CDA6-42FB-4CBF-8A30-3F680C4AEA00}">
   <ds:schemaRefs>
@@ -3092,6 +3571,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB90F7A-0ECF-4FA5-99E7-9E17877A822D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3107,13 +3595,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
+++ b/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225608\OneDrive - TU Eindhoven\Documents\GitHub\Auto-Referee\Auto-Reff files and documents(MSD 2022)\Registrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EC56D38-6D2B-4467-A77B-1822FDD94177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741B2C2-7558-4D86-B931-F9C07C74DDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1464" yWindow="1464" windowWidth="17280" windowHeight="8964" firstSheet="1" xr2:uid="{604296D7-6074-4A89-9478-6B056443FE60}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{604296D7-6074-4A89-9478-6B056443FE60}"/>
   </bookViews>
   <sheets>
     <sheet name="Stakeholder Register" sheetId="9" r:id="rId1"/>
-    <sheet name="Risk Register" sheetId="16" r:id="rId2"/>
-    <sheet name="Change Register" sheetId="12" r:id="rId3"/>
-    <sheet name="Project Schedule Register" sheetId="15" r:id="rId4"/>
-    <sheet name="Team Register" sheetId="10" r:id="rId5"/>
-    <sheet name="Deliverable Registration" sheetId="11" r:id="rId6"/>
-    <sheet name="Requierment Register" sheetId="14" r:id="rId7"/>
+    <sheet name="Change Register" sheetId="12" r:id="rId2"/>
+    <sheet name="Project Schedule Register" sheetId="15" r:id="rId3"/>
+    <sheet name="Team Register" sheetId="10" r:id="rId4"/>
+    <sheet name="Deliverable Registration" sheetId="11" r:id="rId5"/>
+    <sheet name="Requierment Register" sheetId="14" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -42,14 +41,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>Severity</t>
-  </si>
-  <si>
     <t>Initials</t>
   </si>
   <si>
@@ -423,90 +419,6 @@
   </si>
   <si>
     <t>Different dates</t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
-  <si>
-    <t>Domain</t>
-  </si>
-  <si>
-    <t>How</t>
-  </si>
-  <si>
-    <t>Hacking the cameras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Privacy &amp; Security </t>
-  </si>
-  <si>
-    <t>Our cameras are potentially vulnerable to cyberattacks that can execute a variety of harmful actions that can have impact on the judgment of the refree.</t>
-  </si>
-  <si>
-    <t>Hacking the refree system</t>
-  </si>
-  <si>
-    <t>Our refree system is potentially vulnerable to cyberattacks that can execute a variety of harmful actions that can have impact on the judgment of the refree.</t>
-  </si>
-  <si>
-    <t>Data storage privacy</t>
-  </si>
-  <si>
-    <t>There are chances that we lose the stored data and the history of the game.</t>
-  </si>
-  <si>
-    <t>Blocking camera's vision by an obstacle</t>
-  </si>
-  <si>
-    <t>Quality &amp; Reliability</t>
-  </si>
-  <si>
-    <t>If by chance anything blocks the camera's vision, then the refree might miss some imporant details and not being able to make fairfull decision.</t>
-  </si>
-  <si>
-    <t>Fading out the color of the stickers around the football field</t>
-  </si>
-  <si>
-    <t>If the labels in the field faded out, then it might be difficult for autonoum refree to detect the lines and make decision.</t>
-  </si>
-  <si>
-    <t>Camera malfunction</t>
-  </si>
-  <si>
-    <t>Any functional issues in the camera, can cause a delay in the refree's decision.</t>
-  </si>
-  <si>
-    <t>Light condition</t>
-  </si>
-  <si>
-    <t>If the light condition of the field is not desired, then the autonoum refree might have issue for deecting the lines an make a decision.</t>
-  </si>
-  <si>
-    <t>communication problem between autonoum &amp; human refree</t>
-  </si>
-  <si>
-    <t>Technical Performance</t>
-  </si>
-  <si>
-    <t>There will be a delay in refree's decision making, if there are any communication issues between autonoum refree and human refree.</t>
-  </si>
-  <si>
-    <t>Callibration &amp; tuening of image processing tech</t>
-  </si>
-  <si>
-    <t>The accuracy of the current algorithm depends on the method which is used for collibration of the field.</t>
-  </si>
-  <si>
-    <t>Low confidence on object detection ( detecing between ball,team 1 robot, team 2 robot)</t>
-  </si>
-  <si>
-    <t>Since the dataset has been made by us, the detection accuracy may not be accurate.</t>
-  </si>
-  <si>
-    <t>Lower flexibility of code to different robot players</t>
-  </si>
-  <si>
-    <t>If there are any changs in robot's color, our code is not flexible to adjust it in short term.</t>
   </si>
   <si>
     <t>Second version</t>
@@ -705,7 +617,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,38 +683,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -810,7 +690,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="30">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -880,18 +760,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -986,7 +854,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1079,21 +947,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1151,50 +1010,18 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1206,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1216,41 +1043,38 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1723,31 +1547,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1755,31 +1579,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>18</v>
-      </c>
       <c r="J2" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1787,29 +1611,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>22</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1817,29 +1641,29 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="11" t="s">
-        <v>29</v>
-      </c>
       <c r="J4" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1847,27 +1671,27 @@
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
       <c r="F5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1875,29 +1699,29 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>35</v>
-      </c>
       <c r="F6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J6" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -1905,31 +1729,31 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I7" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1941,17 +1765,17 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J8" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1963,19 +1787,19 @@
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1994,310 +1818,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEE2F9EA-A916-4F54-8903-77ED19FAD7DF}">
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="69" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="124.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="33"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
-        <v>1</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D2" s="36" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="34">
-        <v>3</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
-        <v>2</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="E3" s="34">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
-        <v>3</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="34">
-        <v>3</v>
-      </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="33"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="41">
-        <v>4</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D5" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="E5" s="37">
-        <v>2</v>
-      </c>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="41">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="34">
-        <v>3</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="32"/>
-      <c r="H6" s="33"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="41">
-        <v>6</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="34">
-        <v>5</v>
-      </c>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="41">
-        <v>7</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="34">
-        <v>3</v>
-      </c>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="41">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="E9" s="34">
-        <v>4</v>
-      </c>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-      <c r="H9" s="33"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="41">
-        <v>9</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="C10" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="34">
-        <v>5</v>
-      </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="33"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="40">
-        <v>10</v>
-      </c>
-      <c r="B11" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D11" s="39" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="34"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="33"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="40">
-        <v>11</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="34" t="s">
-        <v>147</v>
-      </c>
-      <c r="D12" s="39" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="34">
-        <v>8</v>
-      </c>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="33"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="72"/>
-      <c r="B13" s="72"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-      <c r="H13" s="33"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="73"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="33"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="73"/>
-      <c r="B15" s="73"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="33"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="74"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705FE032-DA67-4F1B-BA56-64687A930160}">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -2318,100 +1838,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="6">
         <v>44973</v>
       </c>
       <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>56</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="6">
         <v>44988</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="6">
         <v>44994</v>
       </c>
       <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
         <v>63</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>64</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="H4" t="s">
         <v>66</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -2420,7 +1940,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D42A198-B80C-4EAE-9BB0-63CF61EA42FA}">
   <dimension ref="A1:H14"/>
   <sheetViews>
@@ -2440,21 +1960,21 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
-      <c r="B1" s="75" t="s">
+      <c r="B1" s="60" t="s">
+        <v>100</v>
+      </c>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="62" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="77" t="s">
-        <v>103</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -2474,56 +1994,56 @@
       <c r="G2" s="19">
         <v>6</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="35">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="78"/>
-      <c r="B3" s="48" t="s">
+      <c r="A3" s="63"/>
+      <c r="B3" s="36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="D3" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="E3" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="E3" s="45" t="s">
+      <c r="F3" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="G3" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="H3" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="48" t="s">
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="31" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="43" t="s">
-        <v>111</v>
-      </c>
       <c r="B4" s="27" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="31" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="B5" s="64"/>
+      <c r="B5" s="52"/>
       <c r="C5" s="22"/>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -2531,19 +2051,19 @@
       <c r="G5" s="21"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
-        <v>114</v>
+      <c r="A6" s="32" t="s">
+        <v>113</v>
       </c>
       <c r="B6" s="24"/>
-      <c r="C6" s="63"/>
+      <c r="C6" s="51"/>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
       <c r="G6" s="21"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="43" t="s">
-        <v>115</v>
+      <c r="A7" s="31" t="s">
+        <v>114</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="23"/>
@@ -2553,85 +2073,85 @@
       <c r="G7" s="21"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
-        <v>116</v>
+      <c r="A8" s="31" t="s">
+        <v>115</v>
       </c>
       <c r="B8" s="20"/>
-      <c r="C8" s="62"/>
+      <c r="C8" s="50"/>
       <c r="D8" s="22"/>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
       <c r="G8" s="21"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>117</v>
+      <c r="A9" s="31" t="s">
+        <v>116</v>
       </c>
       <c r="B9" s="20"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="60"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="48"/>
       <c r="E9" s="22"/>
       <c r="F9" s="20"/>
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="44" t="s">
-        <v>118</v>
+      <c r="A10" s="32" t="s">
+        <v>117</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="22"/>
       <c r="G10" s="21"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="44" t="s">
-        <v>119</v>
+      <c r="A11" s="32" t="s">
+        <v>118</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
-      <c r="G11" s="49"/>
+      <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
-        <v>120</v>
+      <c r="A12" s="32" t="s">
+        <v>119</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="26"/>
-      <c r="G12" s="57"/>
-      <c r="H12" s="58"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="44" t="s">
-        <v>121</v>
+      <c r="A13" s="32" t="s">
+        <v>120</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="56"/>
+      <c r="G13" s="44"/>
       <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="53" t="s">
         <v>122</v>
-      </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="67"/>
-      <c r="D14" s="67"/>
-      <c r="E14" s="67"/>
-      <c r="F14" s="67"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="65" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2725,7 +2245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ADAC88-C9CE-4592-8827-8FB0B382AAE6}">
   <dimension ref="A1:J6"/>
   <sheetViews>
@@ -2752,31 +2272,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>71</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -2785,28 +2305,28 @@
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2815,28 +2335,28 @@
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="7" t="s">
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>81</v>
-      </c>
       <c r="J3" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2845,28 +2365,28 @@
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>85</v>
-      </c>
       <c r="J4" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2875,28 +2395,28 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>89</v>
-      </c>
       <c r="J5" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2904,7 +2424,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2926,7 +2446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB6CCA2-9CE7-4A51-81F7-0545849D86A4}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -2941,106 +2461,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="53" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="52" t="s">
+      <c r="A1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="54" t="s">
+      <c r="B2" s="30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>92</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B3" s="38">
+        <v>45001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="B4" s="38">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="39" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B3" s="50">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" s="38">
+        <v>44970</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="B7" s="38">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="38">
+        <v>44988</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" s="38">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="B10" s="38">
+        <v>45009</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="38">
         <v>45001</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="50">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" s="38">
         <v>44970</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="55" t="s">
-        <v>95</v>
-      </c>
-      <c r="B5" s="51" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="50">
-        <v>44970</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="50">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="50">
-        <v>44988</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="50">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>201</v>
-      </c>
-      <c r="B10" s="50">
-        <v>45009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="55" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="50">
-        <v>45001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B12" s="50">
-        <v>44970</v>
-      </c>
-    </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="50">
+      <c r="A13" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="38">
         <v>44995</v>
       </c>
     </row>
@@ -3049,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B1C62D-D764-4105-92B8-BA09D85BF146}">
   <dimension ref="A1:D45"/>
   <sheetViews>
@@ -3066,344 +2586,344 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="70" t="s">
-        <v>173</v>
-      </c>
-      <c r="B1" s="69" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="71" t="s">
-        <v>198</v>
-      </c>
-      <c r="D1" s="69" t="s">
-        <v>48</v>
+      <c r="A1" s="58" t="s">
+        <v>144</v>
+      </c>
+      <c r="B1" s="57" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="57" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="68" t="s">
-        <v>159</v>
+      <c r="B2" s="56" t="s">
+        <v>130</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
-      <c r="D2" s="68" t="s">
-        <v>169</v>
+      <c r="D2" s="56" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="68" t="s">
-        <v>160</v>
+      <c r="B3" s="56" t="s">
+        <v>131</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="68" t="s">
-        <v>170</v>
+      <c r="D3" s="56" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="68" t="s">
-        <v>161</v>
+      <c r="B4" s="56" t="s">
+        <v>132</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>171</v>
+      <c r="D4" s="29" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>162</v>
+      <c r="B5" s="56" t="s">
+        <v>133</v>
       </c>
       <c r="C5" s="15">
         <v>4</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>172</v>
+      <c r="D5" s="29" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="68" t="s">
-        <v>163</v>
+      <c r="B6" s="56" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>164</v>
+      <c r="B7" s="56" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="68" t="s">
-        <v>165</v>
+      <c r="B8" s="56" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="68" t="s">
-        <v>166</v>
+      <c r="B9" s="56" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="68" t="s">
-        <v>167</v>
+      <c r="B10" s="56" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="15">
         <v>10</v>
       </c>
-      <c r="B11" s="68" t="s">
-        <v>168</v>
+      <c r="B11" s="56" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>179</v>
+      <c r="A12" s="58" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="15">
         <v>1</v>
       </c>
-      <c r="B13" s="33" t="s">
-        <v>174</v>
+      <c r="B13" s="29" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="15">
         <v>2</v>
       </c>
-      <c r="B14" s="33" t="s">
-        <v>175</v>
+      <c r="B14" s="29" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="15">
         <v>3</v>
       </c>
-      <c r="B15" s="33" t="s">
-        <v>176</v>
+      <c r="B15" s="29" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="15">
         <v>4</v>
       </c>
-      <c r="B16" s="33" t="s">
-        <v>177</v>
+      <c r="B16" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="15">
         <v>5</v>
       </c>
-      <c r="B17" s="33" t="s">
-        <v>178</v>
+      <c r="B17" s="29" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>180</v>
+      <c r="A18" s="58" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="15">
         <v>1</v>
       </c>
-      <c r="B19" s="33" t="s">
-        <v>181</v>
+      <c r="B19" s="29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="15">
         <v>2</v>
       </c>
-      <c r="B20" s="33" t="s">
-        <v>182</v>
+      <c r="B20" s="29" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="15">
         <v>3</v>
       </c>
-      <c r="B21" s="33" t="s">
-        <v>183</v>
+      <c r="B21" s="29" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="15">
         <v>4</v>
       </c>
-      <c r="B22" s="33" t="s">
-        <v>184</v>
+      <c r="B22" s="29" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="15">
         <v>5</v>
       </c>
-      <c r="B23" s="33" t="s">
-        <v>185</v>
+      <c r="B23" s="29" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="81">
+      <c r="A24" s="66">
         <v>6</v>
       </c>
-      <c r="B24" s="79" t="s">
-        <v>186</v>
+      <c r="B24" s="64" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="81"/>
-      <c r="B25" s="80"/>
+      <c r="A25" s="66"/>
+      <c r="B25" s="65"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="81"/>
-      <c r="B26" s="80"/>
+      <c r="A26" s="66"/>
+      <c r="B26" s="65"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="81"/>
-      <c r="B27" s="80"/>
+      <c r="A27" s="66"/>
+      <c r="B27" s="65"/>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="81"/>
-      <c r="B28" s="80"/>
+      <c r="A28" s="66"/>
+      <c r="B28" s="65"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="81"/>
-      <c r="B29" s="80"/>
+      <c r="A29" s="66"/>
+      <c r="B29" s="65"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="81"/>
-      <c r="B30" s="80"/>
+      <c r="A30" s="66"/>
+      <c r="B30" s="65"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="81"/>
-      <c r="B31" s="80"/>
+      <c r="A31" s="66"/>
+      <c r="B31" s="65"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="81"/>
-      <c r="B32" s="80"/>
+      <c r="A32" s="66"/>
+      <c r="B32" s="65"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="81"/>
-      <c r="B33" s="80"/>
+      <c r="A33" s="66"/>
+      <c r="B33" s="65"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="81"/>
-      <c r="B34" s="80"/>
+      <c r="A34" s="66"/>
+      <c r="B34" s="65"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="70" t="s">
-        <v>187</v>
+      <c r="A35" s="58" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="15">
         <v>1</v>
       </c>
-      <c r="B36" s="68" t="s">
-        <v>188</v>
+      <c r="B36" s="56" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="15">
         <v>2</v>
       </c>
-      <c r="B37" s="68" t="s">
-        <v>189</v>
+      <c r="B37" s="56" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="15">
         <v>3</v>
       </c>
-      <c r="B38" s="33" t="s">
-        <v>190</v>
+      <c r="B38" s="29" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="15">
         <v>4</v>
       </c>
-      <c r="B39" s="33" t="s">
-        <v>191</v>
+      <c r="B39" s="29" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="15">
         <v>5</v>
       </c>
-      <c r="B40" s="33" t="s">
-        <v>192</v>
+      <c r="B40" s="29" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="15">
         <v>6</v>
       </c>
-      <c r="B41" s="68" t="s">
-        <v>193</v>
+      <c r="B41" s="56" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="15">
         <v>7</v>
       </c>
-      <c r="B42" s="33" t="s">
-        <v>194</v>
+      <c r="B42" s="29" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="15">
         <v>8</v>
       </c>
-      <c r="B43" s="68" t="s">
-        <v>195</v>
+      <c r="B43" s="56" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="15">
         <v>9</v>
       </c>
-      <c r="B44" s="68" t="s">
-        <v>196</v>
+      <c r="B44" s="56" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="15">
         <v>10</v>
       </c>
-      <c r="B45" s="68" t="s">
-        <v>197</v>
+      <c r="B45" s="56" t="s">
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -3425,12 +2945,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007853F880FDE214F97EBD9259D8D9A3D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a146a72e78907ae0b9bbefa29fabe88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1eccce01-e60f-4d14-91b8-d33a907b38d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad7fb27f64a42b5de57b7d481fc88ca" ns2:_="">
     <xsd:import namespace="1eccce01-e60f-4d14-91b8-d33a907b38d2"/>
@@ -3562,6 +3076,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459CDA6-42FB-4CBF-8A30-3F680C4AEA00}">
   <ds:schemaRefs>
@@ -3571,15 +3091,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB90F7A-0ECF-4FA5-99E7-9E17877A822D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3595,4 +3106,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
+++ b/Auto-Reff files and documents(MSD 2022)/Registrations/Registration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20225608\OneDrive - TU Eindhoven\Documents\GitHub\Auto-Referee\Auto-Reff files and documents(MSD 2022)\Registrations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9741B2C2-7558-4D86-B931-F9C07C74DDD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0A9BCB-1164-41FA-A1EE-175BCC80F41F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{604296D7-6074-4A89-9478-6B056443FE60}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="175">
   <si>
     <t>ID</t>
   </si>
@@ -128,9 +128,6 @@
   </si>
   <si>
     <t>Low</t>
-  </si>
-  <si>
-    <t>K.A</t>
   </si>
   <si>
     <t>Tech United team</t>
@@ -611,6 +608,15 @@
   </si>
   <si>
     <t>Final powerpoint presentation</t>
+  </si>
+  <si>
+    <t>R.V</t>
+  </si>
+  <si>
+    <t>E.L</t>
+  </si>
+  <si>
+    <t>R.M</t>
   </si>
 </sst>
 </file>
@@ -1530,7 +1536,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1579,7 +1585,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>172</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1611,7 +1617,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>173</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>19</v>
@@ -1641,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>174</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>24</v>
@@ -1670,11 +1676,9 @@
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="7"/>
@@ -1685,7 +1689,7 @@
         <v>15</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="11" t="s">
         <v>28</v>
@@ -1699,23 +1703,23 @@
         <v>5</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="7" t="s">
         <v>33</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>14</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
         <v>28</v>
@@ -1729,16 +1733,16 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>37</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>14</v>
@@ -1747,7 +1751,7 @@
         <v>15</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>28</v>
@@ -1765,11 +1769,11 @@
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I8" s="9" t="s">
         <v>17</v>
@@ -1790,10 +1794,10 @@
         <v>14</v>
       </c>
       <c r="G9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="I9" s="11" t="s">
         <v>28</v>
@@ -1838,100 +1842,100 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="16" t="s">
         <v>50</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6">
         <v>44973</v>
       </c>
       <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>54</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="6">
         <v>44988</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" t="s">
         <v>58</v>
-      </c>
-      <c r="E3" t="s">
-        <v>59</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="6">
         <v>44994</v>
       </c>
       <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>63</v>
-      </c>
-      <c r="E4" t="s">
-        <v>64</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H4" t="s">
         <v>65</v>
-      </c>
-      <c r="H4" t="s">
-        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1961,7 +1965,7 @@
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="17"/>
       <c r="B1" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C1" s="61"/>
       <c r="D1" s="61"/>
@@ -1969,12 +1973,12 @@
       <c r="F1" s="61"/>
       <c r="G1" s="61"/>
       <c r="H1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B2" s="18">
         <v>1</v>
@@ -2001,47 +2005,47 @@
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="63"/>
       <c r="B3" s="36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="F3" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="G3" s="34" t="s">
         <v>107</v>
       </c>
-      <c r="G3" s="34" t="s">
+      <c r="H3" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
       <c r="G4" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B5" s="52"/>
       <c r="C5" s="22"/>
@@ -2052,7 +2056,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="51"/>
@@ -2063,7 +2067,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="23"/>
@@ -2074,7 +2078,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="50"/>
@@ -2085,7 +2089,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9" s="20"/>
       <c r="C9" s="49"/>
@@ -2096,7 +2100,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B10" s="20"/>
       <c r="C10" s="20"/>
@@ -2107,7 +2111,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B11" s="20"/>
       <c r="C11" s="20"/>
@@ -2118,7 +2122,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B12" s="20"/>
       <c r="C12" s="20"/>
@@ -2130,7 +2134,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B13" s="20"/>
       <c r="C13" s="20"/>
@@ -2142,7 +2146,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B14" s="20"/>
       <c r="C14" s="55"/>
@@ -2151,7 +2155,7 @@
       <c r="F14" s="55"/>
       <c r="G14" s="54"/>
       <c r="H14" s="53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -2272,7 +2276,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2284,16 +2288,16 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G1" s="8" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>69</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>70</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -2308,25 +2312,25 @@
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2338,25 +2342,25 @@
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2368,25 +2372,25 @@
         <v>23</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -2398,25 +2402,25 @@
         <v>18</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -2424,7 +2428,7 @@
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -2462,23 +2466,23 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B1" s="40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="38">
         <v>45001</v>
@@ -2486,7 +2490,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="38">
         <v>44970</v>
@@ -2494,15 +2498,15 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="43" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="43" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="38">
         <v>44970</v>
@@ -2510,7 +2514,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="43" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B7" s="38">
         <v>45009</v>
@@ -2518,7 +2522,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B8" s="38">
         <v>44988</v>
@@ -2526,7 +2530,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B9" s="38">
         <v>45009</v>
@@ -2534,7 +2538,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="43" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="38">
         <v>45009</v>
@@ -2542,7 +2546,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B11" s="38">
         <v>45001</v>
@@ -2550,7 +2554,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B12" s="38">
         <v>44970</v>
@@ -2558,7 +2562,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="43" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B13" s="38">
         <v>44995</v>
@@ -2587,16 +2591,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C1" s="59" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D1" s="57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -2604,13 +2608,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="56" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C2" s="15">
         <v>1</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -2618,13 +2622,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C3" s="15">
         <v>2</v>
       </c>
       <c r="D3" s="56" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -2632,13 +2636,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C4" s="15">
         <v>3</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -2646,13 +2650,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="56" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="15">
         <v>4</v>
       </c>
       <c r="D5" s="29" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -2660,7 +2664,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -2668,7 +2672,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="56" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -2676,7 +2680,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="56" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -2684,7 +2688,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="56" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -2692,7 +2696,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="56" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -2700,12 +2704,12 @@
         <v>10</v>
       </c>
       <c r="B11" s="56" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -2713,7 +2717,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -2721,7 +2725,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -2729,7 +2733,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -2737,7 +2741,7 @@
         <v>4</v>
       </c>
       <c r="B16" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2745,12 +2749,12 @@
         <v>5</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2758,7 +2762,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="29" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
@@ -2766,7 +2770,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2774,7 +2778,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -2782,7 +2786,7 @@
         <v>4</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -2790,7 +2794,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -2798,7 +2802,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="64" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -2843,7 +2847,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
@@ -2851,7 +2855,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
@@ -2859,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="56" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
@@ -2867,7 +2871,7 @@
         <v>3</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
@@ -2875,7 +2879,7 @@
         <v>4</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
@@ -2883,7 +2887,7 @@
         <v>5</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
@@ -2891,7 +2895,7 @@
         <v>6</v>
       </c>
       <c r="B41" s="56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
@@ -2899,7 +2903,7 @@
         <v>7</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
@@ -2907,7 +2911,7 @@
         <v>8</v>
       </c>
       <c r="B43" s="56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
@@ -2915,7 +2919,7 @@
         <v>9</v>
       </c>
       <c r="B44" s="56" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
@@ -2923,7 +2927,7 @@
         <v>10</v>
       </c>
       <c r="B45" s="56" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -2945,6 +2949,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010007853F880FDE214F97EBD9259D8D9A3D" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3a146a72e78907ae0b9bbefa29fabe88">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1eccce01-e60f-4d14-91b8-d33a907b38d2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5ad7fb27f64a42b5de57b7d481fc88ca" ns2:_="">
     <xsd:import namespace="1eccce01-e60f-4d14-91b8-d33a907b38d2"/>
@@ -3076,12 +3086,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6459CDA6-42FB-4CBF-8A30-3F680C4AEA00}">
   <ds:schemaRefs>
@@ -3091,6 +3095,15 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DFB90F7A-0ECF-4FA5-99E7-9E17877A822D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3106,13 +3119,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0AD0DC88-B2A0-4981-965D-7B7B2EF965A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>